--- a/CNCToolingDatabase/bin/Debug/net8.0/Data/MASTER - MATERIAL SPEC.xlsx
+++ b/CNCToolingDatabase/bin/Debug/net8.0/Data/MASTER - MATERIAL SPEC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Tool-Master-Control\Tool-Master-Control\CNCToolingDatabase\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAED6AD-946B-4D58-B89A-6A57A581DC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561C81BE-36F3-4EE8-976C-32A89E5B42F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8271D9D6-2065-419F-AC52-7850B71D4074}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="595">
   <si>
     <t>No.</t>
   </si>
@@ -135,9 +135,6 @@
     <t>ABM3-1030, ABP 0-2017 Class B, AITM6-4003</t>
   </si>
   <si>
-    <t>ABS1507 D50400</t>
-  </si>
-  <si>
     <t>ABS1507D</t>
   </si>
   <si>
@@ -147,15 +144,9 @@
     <t>PEEL SHIM</t>
   </si>
   <si>
-    <t>ABS5032 A016</t>
-  </si>
-  <si>
     <t>T351</t>
   </si>
   <si>
-    <t>ABS5032 A035</t>
-  </si>
-  <si>
     <t>ABS5032A</t>
   </si>
   <si>
@@ -189,15 +180,9 @@
     <t>SHEET</t>
   </si>
   <si>
-    <t>ABS5043D 010</t>
-  </si>
-  <si>
     <t>AIMS 03-04-011 T4 CLAD</t>
   </si>
   <si>
-    <t>ABS5043D 020</t>
-  </si>
-  <si>
     <t>ABS5044A012</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>FLAT ROUTING</t>
   </si>
   <si>
-    <t>ABS5044D 020</t>
-  </si>
-  <si>
     <t>ABS5044D</t>
   </si>
   <si>
@@ -276,123 +258,12 @@
     <t>ABS5055A0380</t>
   </si>
   <si>
-    <t>ABS5064 A 040</t>
-  </si>
-  <si>
     <t>ABS5064A</t>
   </si>
   <si>
     <t>AL 7175</t>
   </si>
   <si>
-    <t>ABS5064 A016</t>
-  </si>
-  <si>
-    <t>ABS5064 A018</t>
-  </si>
-  <si>
-    <t>ABS5064 A020</t>
-  </si>
-  <si>
-    <t>ABS5064 A025</t>
-  </si>
-  <si>
-    <t>ABS5064 A038</t>
-  </si>
-  <si>
-    <t>ABS5064 A043</t>
-  </si>
-  <si>
-    <t>ABS5064 A045</t>
-  </si>
-  <si>
-    <t>ABS5064 A063</t>
-  </si>
-  <si>
-    <t>ABS5064 A090</t>
-  </si>
-  <si>
-    <t>ABS5064 A095</t>
-  </si>
-  <si>
-    <t>ABS5064 A100</t>
-  </si>
-  <si>
-    <t>ABS5064A 008</t>
-  </si>
-  <si>
-    <t>ABS5064A 010</t>
-  </si>
-  <si>
-    <t>ABS5064A 012</t>
-  </si>
-  <si>
-    <t>ABS5064A 024</t>
-  </si>
-  <si>
-    <t>ABS5064A 025</t>
-  </si>
-  <si>
-    <t>ABS5064A 030</t>
-  </si>
-  <si>
-    <t>ABS5064A 032</t>
-  </si>
-  <si>
-    <t>ABS5064A 035</t>
-  </si>
-  <si>
-    <t>ABS5064A 036</t>
-  </si>
-  <si>
-    <t>ABS5064A 037</t>
-  </si>
-  <si>
-    <t>ABS5064A 038</t>
-  </si>
-  <si>
-    <t>ABS5064A 040</t>
-  </si>
-  <si>
-    <t>ABS5064A 042</t>
-  </si>
-  <si>
-    <t>ABS5064A 043</t>
-  </si>
-  <si>
-    <t>ABS5064A 045</t>
-  </si>
-  <si>
-    <t>ABS5064A 047</t>
-  </si>
-  <si>
-    <t>ABS5064A 048</t>
-  </si>
-  <si>
-    <t>ABS5064A 050</t>
-  </si>
-  <si>
-    <t>ABS5064A 052</t>
-  </si>
-  <si>
-    <t>ABS5064A 055</t>
-  </si>
-  <si>
-    <t>ABS5064A 060</t>
-  </si>
-  <si>
-    <t>ABS5064A 063</t>
-  </si>
-  <si>
-    <t>ABS5064A 065</t>
-  </si>
-  <si>
-    <t>ABS5064A 070</t>
-  </si>
-  <si>
-    <t>ABS5064A 085</t>
-  </si>
-  <si>
     <t>ABS5064A008</t>
   </si>
   <si>
@@ -489,9 +360,6 @@
     <t>X3CrNiMoAl13-8(PH13-8Mo)</t>
   </si>
   <si>
-    <t>ABS5323 B035</t>
-  </si>
-  <si>
     <t>ABS5323B</t>
   </si>
   <si>
@@ -699,15 +567,9 @@
     <t>AL 2027</t>
   </si>
   <si>
-    <t>ABS5503A 016</t>
-  </si>
-  <si>
     <t>ABS5503A</t>
   </si>
   <si>
-    <t>AL ALLOY 2024</t>
-  </si>
-  <si>
     <t>AIMS 03-04-024, T4, CLAD</t>
   </si>
   <si>
@@ -1020,9 +882,6 @@
     <t>ASNA3010-8762 OR ASNA3010-8781</t>
   </si>
   <si>
-    <t>AL ALLOY 2024 T3</t>
-  </si>
-  <si>
     <t>ASNA3011</t>
   </si>
   <si>
@@ -1488,15 +1347,6 @@
     <t>6082 T6</t>
   </si>
   <si>
-    <t>INSERT: AMS 5731/ AMS 5732/ AMS 5737 LOCKING KEES: AMS 5731/ AMS 5525 (CHEMISTRY ONLY)</t>
-  </si>
-  <si>
-    <t>H/T BOTH INSERT &amp; LOCKING KEES TO 140 KSI MIN PER AMS 2759, PERFORMANCE PER MIL-I-45914</t>
-  </si>
-  <si>
-    <t>TUBE/LINE SUPPORT CLAMP (TRUSS TYPE)</t>
-  </si>
-  <si>
     <t>J4301</t>
   </si>
   <si>
@@ -1563,18 +1413,9 @@
     <t>L168 T651, ABP6-5232 BSL100 Section 1 and 6</t>
   </si>
   <si>
-    <t>L168 T6511, BSL100 Section 1 and 6, UTS to ABP 0-2017 Class A, AITM6-4003</t>
-  </si>
-  <si>
     <t>AL 2014</t>
   </si>
   <si>
-    <t>L168 T6511,BSL100 Section 1 and 6, UTS to ABP 0-2017 Class A, AITM6-4003</t>
-  </si>
-  <si>
-    <t>L168 T6511,BSL100 Section 1 and 6, UTS to ABP 0-2017 Class B, AITM6-4003</t>
-  </si>
-  <si>
     <t>L169 to ABP 0-2018</t>
   </si>
   <si>
@@ -1599,9 +1440,6 @@
     <t>AL 2024 T351</t>
   </si>
   <si>
-    <t>L97, ABP 0-2017 Class A, AITM6-4003 / ABM1-1005, AITM6-4003</t>
-  </si>
-  <si>
     <t>L97, ABP 0-2017 Class B</t>
   </si>
   <si>
@@ -1644,9 +1482,6 @@
     <t>MAKE FROM BACF3H07NW007HN</t>
   </si>
   <si>
-    <t>MAKE FROM EXTRUSION S700E1767-1, AMS-QQ-A-200/11</t>
-  </si>
-  <si>
     <t>MC110Y874, AMS 4201</t>
   </si>
   <si>
@@ -1918,6 +1753,72 @@
   </si>
   <si>
     <t>INACTIVE</t>
+  </si>
+  <si>
+    <t>T6511,BSL100 Section 1 and 6, UTS to ABP 0-2017 Class A, AITM6-4003</t>
+  </si>
+  <si>
+    <t>ABP 0-2017 Class A, AITM6-4003 / ABM1-1005, AITM6-4003</t>
+  </si>
+  <si>
+    <t>EXTRUSION S700E1767-1, AMS-QQ-A-200/11</t>
+  </si>
+  <si>
+    <t>ABS5032A016</t>
+  </si>
+  <si>
+    <t>ABS5032A035</t>
+  </si>
+  <si>
+    <t>ABS5043D010</t>
+  </si>
+  <si>
+    <t>ABS5043D020</t>
+  </si>
+  <si>
+    <t>ABS5044D020</t>
+  </si>
+  <si>
+    <t>ABS5064A016</t>
+  </si>
+  <si>
+    <t>ABS5064A018</t>
+  </si>
+  <si>
+    <t>ABS5064A020</t>
+  </si>
+  <si>
+    <t>ABS5064A038</t>
+  </si>
+  <si>
+    <t>ABS5064A100</t>
+  </si>
+  <si>
+    <t>ABS5064A010</t>
+  </si>
+  <si>
+    <t>ABS5064A012</t>
+  </si>
+  <si>
+    <t>ABS5064A024</t>
+  </si>
+  <si>
+    <t>ABS5064A036</t>
+  </si>
+  <si>
+    <t>ABS5064A037</t>
+  </si>
+  <si>
+    <t>ABS5064A048</t>
+  </si>
+  <si>
+    <t>ABS5064A052</t>
+  </si>
+  <si>
+    <t>ABS1507D50400</t>
+  </si>
+  <si>
+    <t>AL 2024 T3</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1981,14 +1882,51 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2033,46 +1971,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2087,19 +1985,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F9D2975-A917-404F-9FF3-664FDE891014}" name="Table1" displayName="Table1" ref="A1:G402" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:G402" xr:uid="{1F9D2975-A917-404F-9FF3-664FDE891014}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G402">
-    <sortCondition ref="A1:A402"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F9D2975-A917-404F-9FF3-664FDE891014}" name="Table1" displayName="Table1" ref="A1:G399" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G399" xr:uid="{1F9D2975-A917-404F-9FF3-664FDE891014}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G399">
+    <sortCondition ref="B1:B399"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4A87BED8-B1B5-45DE-BB4C-8C3E6116591E}" name="No." dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{5E55A1C0-5160-4819-9AC4-BFE97197F01A}" name="Material Specification (On Drawing)" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{845972EE-931D-48C1-A805-9C9C8F0C1C8F}" name="Material Specification (Purchased)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8A573068-BDAD-4190-A141-A64161D52E25}" name="General Name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F7D82D96-B952-4EF2-B41C-B1FC5B30C169}" name="Material Supply Condition (Purchased)" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{3A7225A8-690F-47E8-AED2-6A80200CCE32}" name="Material Type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F3A2A34E-F6A4-4E74-965D-DE476ADF2610}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4A87BED8-B1B5-45DE-BB4C-8C3E6116591E}" name="No." dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{5E55A1C0-5160-4819-9AC4-BFE97197F01A}" name="Material Specification (On Drawing)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{845972EE-931D-48C1-A805-9C9C8F0C1C8F}" name="Material Specification (Purchased)" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8A573068-BDAD-4190-A141-A64161D52E25}" name="General Name" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F7D82D96-B952-4EF2-B41C-B1FC5B30C169}" name="Material Supply Condition (Purchased)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3A7225A8-690F-47E8-AED2-6A80200CCE32}" name="Material Type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F3A2A34E-F6A4-4E74-965D-DE476ADF2610}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2402,16 +2300,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8EBE31-42AA-4644-A64F-E2B9900B290E}">
-  <dimension ref="A1:G450"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="138.140625" style="2" bestFit="1" customWidth="1"/>
@@ -2671,16 +2569,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>2</v>
@@ -2693,11 +2591,14 @@
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
@@ -2711,16 +2612,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -2734,16 +2635,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>576</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
@@ -2757,19 +2655,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>2</v>
@@ -2780,19 +2678,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>577</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>2</v>
@@ -2803,16 +2701,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>2</v>
@@ -2823,19 +2721,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>2</v>
@@ -2846,19 +2744,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>2</v>
@@ -2869,19 +2767,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>578</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>2</v>
@@ -2892,19 +2790,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>579</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>2</v>
@@ -2915,19 +2813,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>2</v>
@@ -2938,19 +2836,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>2</v>
@@ -2961,19 +2859,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>2</v>
@@ -2984,19 +2882,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>2</v>
@@ -3007,19 +2905,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>580</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>2</v>
@@ -3030,19 +2928,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>2</v>
@@ -3053,19 +2951,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>2</v>
@@ -3076,19 +2974,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>2</v>
@@ -3099,19 +2997,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>2</v>
@@ -3122,7 +3020,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
@@ -3139,19 +3037,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>2</v>
@@ -3162,10 +3060,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
@@ -3174,7 +3072,7 @@
         <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>2</v>
@@ -3185,16 +3083,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>27</v>
@@ -3208,16 +3106,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>27</v>
@@ -3231,16 +3129,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>586</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>27</v>
@@ -3254,16 +3152,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>587</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>27</v>
@@ -3277,16 +3175,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>581</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>27</v>
@@ -3300,19 +3198,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>582</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>2</v>
@@ -3323,16 +3221,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>583</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>27</v>
@@ -3346,16 +3244,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>588</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>27</v>
@@ -3369,16 +3267,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>27</v>
@@ -3392,16 +3290,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>27</v>
@@ -3415,16 +3313,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>27</v>
@@ -3438,19 +3336,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>2</v>
@@ -3461,16 +3359,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>27</v>
@@ -3484,16 +3382,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>27</v>
@@ -3507,16 +3405,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>27</v>
@@ -3530,16 +3428,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>27</v>
@@ -3553,16 +3451,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>27</v>
@@ -3576,16 +3474,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>27</v>
@@ -3599,16 +3497,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>589</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>27</v>
@@ -3622,16 +3520,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>27</v>
@@ -3645,19 +3543,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>584</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>2</v>
@@ -3668,16 +3566,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>584</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>27</v>
@@ -3691,16 +3589,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>27</v>
@@ -3714,16 +3612,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>27</v>
@@ -3737,16 +3635,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>27</v>
@@ -3760,16 +3658,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>27</v>
@@ -3783,19 +3681,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>2</v>
@@ -3806,16 +3704,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>27</v>
@@ -3829,16 +3727,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>27</v>
@@ -3852,19 +3750,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>2</v>
@@ -3875,16 +3773,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>27</v>
@@ -3898,16 +3796,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>27</v>
@@ -3921,16 +3819,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>27</v>
@@ -3944,16 +3842,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>27</v>
@@ -3967,19 +3865,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>2</v>
@@ -3990,16 +3888,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>591</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>27</v>
@@ -4013,16 +3911,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>27</v>
@@ -4036,16 +3934,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>27</v>
@@ -4059,16 +3957,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>592</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>27</v>
@@ -4082,19 +3980,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>2</v>
@@ -4105,16 +4003,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>27</v>
@@ -4128,16 +4026,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>27</v>
@@ -4151,16 +4049,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>27</v>
@@ -4174,16 +4072,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>27</v>
@@ -4197,19 +4095,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>2</v>
@@ -4220,19 +4118,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>2</v>
@@ -4243,16 +4141,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>27</v>
@@ -4266,19 +4164,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>2</v>
@@ -4289,16 +4187,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>27</v>
@@ -4312,16 +4210,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>27</v>
@@ -4335,16 +4233,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>27</v>
@@ -4358,19 +4256,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>2</v>
@@ -4381,16 +4279,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>27</v>
@@ -4404,16 +4302,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>27</v>
@@ -4427,16 +4325,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>27</v>
@@ -4450,16 +4348,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>27</v>
@@ -4473,16 +4371,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>27</v>
@@ -4496,19 +4394,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>2</v>
@@ -4519,16 +4417,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>27</v>
@@ -4542,19 +4440,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>2</v>
@@ -4565,16 +4463,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>585</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>27</v>
@@ -4588,13 +4486,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>27</v>
@@ -4608,13 +4506,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>27</v>
@@ -4628,10 +4526,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>27</v>
@@ -4645,13 +4543,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>2</v>
@@ -4662,13 +4560,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>2</v>
@@ -4679,13 +4577,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>27</v>
@@ -4699,16 +4600,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>27</v>
@@ -4722,16 +4623,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>27</v>
@@ -4745,16 +4646,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>27</v>
@@ -4768,16 +4669,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>27</v>
@@ -4791,16 +4692,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>27</v>
@@ -4814,16 +4715,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>27</v>
@@ -4837,16 +4738,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>27</v>
@@ -4860,16 +4761,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>27</v>
@@ -4883,16 +4784,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>27</v>
@@ -4906,16 +4807,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>27</v>
@@ -4929,16 +4830,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>27</v>
@@ -4952,16 +4853,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>27</v>
@@ -4975,16 +4876,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>27</v>
@@ -4998,16 +4899,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>27</v>
@@ -5021,16 +4922,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>27</v>
@@ -5044,16 +4945,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>27</v>
@@ -5067,16 +4968,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>27</v>
@@ -5090,16 +4991,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>27</v>
@@ -5113,16 +5014,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>27</v>
@@ -5136,16 +5037,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>27</v>
@@ -5159,16 +5060,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>27</v>
@@ -5182,16 +5083,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>27</v>
@@ -5205,16 +5106,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>27</v>
@@ -5228,16 +5129,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>27</v>
@@ -5251,16 +5152,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>27</v>
@@ -5274,16 +5175,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>27</v>
@@ -5297,16 +5198,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>27</v>
@@ -5320,16 +5221,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>27</v>
@@ -5343,16 +5244,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>27</v>
@@ -5366,16 +5267,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>27</v>
@@ -5389,16 +5290,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>27</v>
@@ -5412,16 +5310,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>27</v>
@@ -5435,13 +5333,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>29</v>
@@ -5458,13 +5356,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>29</v>
@@ -5481,16 +5379,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>27</v>
@@ -5504,13 +5402,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>29</v>
@@ -5527,16 +5425,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>27</v>
@@ -5550,16 +5448,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>27</v>
@@ -5573,16 +5471,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>27</v>
@@ -5596,13 +5494,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>29</v>
@@ -5619,16 +5517,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>27</v>
@@ -5642,13 +5540,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>29</v>
@@ -5665,13 +5563,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>29</v>
@@ -5688,13 +5586,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>29</v>
@@ -5711,13 +5609,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>29</v>
@@ -5734,13 +5632,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>29</v>
@@ -5757,16 +5655,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>27</v>
@@ -5780,16 +5678,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>27</v>
@@ -5803,13 +5701,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>29</v>
@@ -5826,13 +5724,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>29</v>
@@ -5849,16 +5747,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>27</v>
@@ -5872,13 +5770,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>29</v>
@@ -5895,13 +5793,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>29</v>
@@ -5918,16 +5816,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>27</v>
@@ -5941,16 +5839,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>27</v>
@@ -5964,16 +5862,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>27</v>
@@ -5987,16 +5885,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>27</v>
@@ -6010,16 +5908,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>27</v>
@@ -6033,16 +5931,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>27</v>
@@ -6056,13 +5954,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>27</v>
@@ -6076,13 +5974,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>27</v>
@@ -6096,13 +5994,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>27</v>
@@ -6116,13 +6014,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>16</v>
@@ -6136,13 +6034,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>2</v>
@@ -6153,13 +6051,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>2</v>
@@ -6170,13 +6068,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>16</v>
@@ -6190,13 +6088,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>27</v>
@@ -6210,13 +6108,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>27</v>
@@ -6230,16 +6128,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>27</v>
@@ -6253,19 +6151,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>2</v>
@@ -6276,19 +6174,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>2</v>
@@ -6299,19 +6197,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>2</v>
@@ -6322,13 +6220,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>27</v>
@@ -6342,16 +6240,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>2</v>
@@ -6362,13 +6260,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>2</v>
@@ -6379,13 +6277,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>2</v>
@@ -6396,13 +6294,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>2</v>
@@ -6413,10 +6311,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>16</v>
@@ -6430,16 +6328,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>2</v>
@@ -6450,13 +6348,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>27</v>
@@ -6470,13 +6368,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>2</v>
@@ -6487,16 +6385,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>2</v>
@@ -6507,16 +6405,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>2</v>
@@ -6527,16 +6425,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>2</v>
@@ -6547,16 +6445,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>2</v>
@@ -6567,16 +6465,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>2</v>
@@ -6587,16 +6485,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>2</v>
@@ -6607,16 +6505,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>2</v>
@@ -6627,16 +6525,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>2</v>
@@ -6647,16 +6545,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>2</v>
@@ -6667,16 +6565,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>2</v>
@@ -6687,16 +6585,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>2</v>
@@ -6707,16 +6605,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>2</v>
@@ -6727,16 +6625,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>2</v>
@@ -6747,16 +6645,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>2</v>
@@ -6767,16 +6665,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>2</v>
@@ -6787,16 +6685,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>2</v>
@@ -6807,16 +6705,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>2</v>
@@ -6827,13 +6725,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>16</v>
@@ -6847,13 +6745,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>27</v>
@@ -6867,16 +6765,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>2</v>
@@ -6887,13 +6785,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>2</v>
@@ -6904,13 +6802,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>2</v>
@@ -6921,13 +6819,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>2</v>
@@ -6938,10 +6836,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>27</v>
@@ -6955,10 +6853,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>27</v>
@@ -6972,13 +6870,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>2</v>
@@ -6989,13 +6887,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>2</v>
@@ -7006,10 +6904,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>2</v>
@@ -7020,13 +6918,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>2</v>
@@ -7037,13 +6935,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>2</v>
@@ -7054,10 +6952,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>2</v>
@@ -7068,13 +6966,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>2</v>
@@ -7085,10 +6983,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>2</v>
@@ -7099,10 +6997,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>2</v>
@@ -7113,16 +7011,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>2</v>
@@ -7133,16 +7031,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>328</v>
+        <v>594</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>2</v>
@@ -7153,13 +7051,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>27</v>
@@ -7173,19 +7071,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>2</v>
@@ -7196,13 +7094,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>27</v>
@@ -7216,13 +7114,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>27</v>
@@ -7236,13 +7134,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>27</v>
@@ -7256,13 +7154,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>27</v>
@@ -7276,13 +7174,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>27</v>
@@ -7296,13 +7194,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>27</v>
@@ -7316,13 +7214,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>27</v>
@@ -7336,13 +7234,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>27</v>
@@ -7356,16 +7254,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>27</v>
@@ -7379,13 +7277,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>27</v>
@@ -7399,13 +7297,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>27</v>
@@ -7419,16 +7317,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>2</v>
@@ -7439,16 +7337,16 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>2</v>
@@ -7459,16 +7357,16 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>2</v>
@@ -7479,16 +7377,16 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>2</v>
@@ -7499,16 +7397,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>2</v>
@@ -7519,16 +7417,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>2</v>
@@ -7539,16 +7437,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>2</v>
@@ -7559,16 +7457,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>2</v>
@@ -7579,16 +7477,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>2</v>
@@ -7599,16 +7497,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>2</v>
@@ -7619,16 +7517,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>2</v>
@@ -7639,13 +7537,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>27</v>
@@ -7659,13 +7557,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>27</v>
@@ -7679,13 +7577,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>27</v>
@@ -7699,13 +7597,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>27</v>
@@ -7719,13 +7617,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>27</v>
@@ -7739,13 +7637,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>27</v>
@@ -7759,13 +7657,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>27</v>
@@ -7779,13 +7677,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>27</v>
@@ -7799,13 +7697,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>27</v>
@@ -7819,13 +7717,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>27</v>
@@ -7839,16 +7737,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>27</v>
@@ -7862,13 +7760,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>27</v>
@@ -7882,13 +7780,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>27</v>
@@ -7902,13 +7800,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>27</v>
@@ -7922,13 +7820,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>27</v>
@@ -7942,16 +7840,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>27</v>
@@ -7965,16 +7863,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>27</v>
@@ -7988,16 +7886,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>27</v>
@@ -8011,13 +7909,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>16</v>
@@ -8031,16 +7929,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>27</v>
@@ -8054,16 +7952,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>27</v>
@@ -8077,19 +7975,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>2</v>
@@ -8100,16 +7998,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>2</v>
@@ -8120,10 +8018,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>16</v>
@@ -8137,10 +8035,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>16</v>
@@ -8154,10 +8052,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>16</v>
@@ -8171,13 +8069,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>16</v>
@@ -8191,13 +8089,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>16</v>
@@ -8211,16 +8109,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>16</v>
@@ -8234,13 +8132,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>16</v>
@@ -8254,16 +8152,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>16</v>
@@ -8277,13 +8175,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>16</v>
@@ -8297,13 +8195,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>16</v>
@@ -8317,16 +8215,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>16</v>
@@ -8340,13 +8238,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>16</v>
@@ -8360,13 +8258,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>16</v>
@@ -8380,13 +8278,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>16</v>
@@ -8400,16 +8298,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>2</v>
@@ -8420,16 +8318,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>2</v>
@@ -8440,16 +8338,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>16</v>
@@ -8463,16 +8361,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>16</v>
@@ -8486,16 +8384,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>16</v>
@@ -8509,16 +8407,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>16</v>
@@ -8532,13 +8430,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>16</v>
@@ -8552,13 +8450,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>16</v>
@@ -8572,10 +8470,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>16</v>
@@ -8589,10 +8487,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>16</v>
@@ -8606,13 +8504,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>16</v>
@@ -8626,7 +8524,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>13</v>
@@ -8635,7 +8533,7 @@
         <v>18</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>2</v>
@@ -8646,7 +8544,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>13</v>
@@ -8655,7 +8553,7 @@
         <v>18</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="G293" s="2" t="s">
         <v>2</v>
@@ -8666,16 +8564,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>2</v>
@@ -8686,19 +8584,19 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>2</v>
@@ -8709,13 +8607,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>2</v>
@@ -8726,13 +8624,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>2</v>
@@ -8743,13 +8641,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>2</v>
@@ -8760,13 +8658,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>2</v>
@@ -8777,13 +8675,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>2</v>
@@ -8794,16 +8692,16 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>27</v>
@@ -8817,7 +8715,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>24</v>
@@ -8840,10 +8738,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>2</v>
@@ -8854,16 +8752,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>2</v>
@@ -8874,16 +8772,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>2</v>
@@ -8894,16 +8792,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>2</v>
@@ -8914,13 +8812,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>2</v>
@@ -8931,10 +8829,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>27</v>
@@ -8948,10 +8846,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>27</v>
@@ -8965,10 +8863,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>27</v>
@@ -8982,13 +8880,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>2</v>
@@ -8999,10 +8897,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>2</v>
@@ -9013,10 +8911,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>2</v>
@@ -9027,13 +8925,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>2</v>
@@ -9044,13 +8942,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>2</v>
@@ -9061,13 +8959,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>627</v>
+        <v>572</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -9075,10 +8973,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>2</v>
@@ -9089,16 +8987,16 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>2</v>
@@ -9109,16 +9007,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>2</v>
@@ -9129,13 +9027,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>2</v>
@@ -9146,16 +9044,16 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>484</v>
+        <v>575</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>485</v>
+        <v>387</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>486</v>
+        <v>189</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>2</v>
@@ -9166,19 +9064,19 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>2</v>
@@ -9189,19 +9087,19 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>2</v>
@@ -9212,19 +9110,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>2</v>
@@ -9235,19 +9133,19 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>2</v>
@@ -9258,19 +9156,19 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>2</v>
@@ -9281,19 +9179,19 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>2</v>
@@ -9304,19 +9202,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>2</v>
@@ -9327,16 +9222,19 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>505</v>
+        <v>453</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>2</v>
@@ -9347,10 +9245,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>507</v>
+        <v>455</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>2</v>
@@ -9361,10 +9265,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>2</v>
@@ -9375,13 +9279,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>2</v>
@@ -9392,13 +9293,16 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>511</v>
+        <v>460</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>510</v>
+        <v>462</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>27</v>
+        <v>463</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>2</v>
@@ -9409,10 +9313,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>510</v>
+        <v>464</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>27</v>
@@ -9426,16 +9330,19 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>514</v>
+        <v>37</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>515</v>
+        <v>13</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>2</v>
@@ -9446,16 +9353,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>40</v>
+        <v>466</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>27</v>
@@ -9469,13 +9370,19 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>519</v>
+        <v>468</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>520</v>
+        <v>13</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>2</v>
@@ -9486,7 +9393,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>521</v>
+        <v>470</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>27</v>
@@ -9500,19 +9410,19 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>522</v>
+        <v>471</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G339" s="2" t="s">
         <v>2</v>
@@ -9523,10 +9433,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>27</v>
@@ -9540,19 +9450,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>526</v>
+        <v>475</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E341" s="2" t="s">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>27</v>
+        <v>477</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>2</v>
@@ -9563,13 +9467,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>520</v>
+        <v>183</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>2</v>
@@ -9580,13 +9484,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>530</v>
+        <v>183</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>531</v>
+        <v>27</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>2</v>
@@ -9597,13 +9501,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>308</v>
+        <v>47</v>
       </c>
       <c r="G344" s="2" t="s">
         <v>2</v>
@@ -9614,13 +9518,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G345" s="2" t="s">
         <v>2</v>
@@ -9631,13 +9535,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G346" s="2" t="s">
         <v>2</v>
@@ -9648,13 +9552,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G347" s="2" t="s">
         <v>2</v>
@@ -9665,16 +9569,16 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>434</v>
+        <v>112</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="G348" s="2" t="s">
         <v>2</v>
@@ -9685,10 +9589,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>27</v>
@@ -9702,13 +9606,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>278</v>
+        <v>487</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G350" s="2" t="s">
         <v>2</v>
@@ -9719,16 +9623,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E351" s="2" t="s">
-        <v>156</v>
+        <v>417</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="G351" s="2" t="s">
         <v>2</v>
@@ -9739,13 +9640,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>2</v>
@@ -9756,13 +9657,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>2</v>
@@ -9773,13 +9674,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>2</v>
@@ -9790,13 +9691,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="G355" s="2" t="s">
         <v>2</v>
@@ -9807,13 +9708,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>546</v>
+        <v>183</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>2</v>
@@ -9824,10 +9725,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>27</v>
@@ -9841,10 +9742,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>27</v>
@@ -9858,13 +9759,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>2</v>
@@ -9875,13 +9776,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G360" s="2" t="s">
         <v>2</v>
@@ -9892,13 +9793,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G361" s="2" t="s">
         <v>2</v>
@@ -9909,13 +9810,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>2</v>
@@ -9926,13 +9827,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>13</v>
+        <v>502</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>50</v>
+        <v>503</v>
       </c>
       <c r="G363" s="2" t="s">
         <v>2</v>
@@ -9943,13 +9844,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>13</v>
+        <v>502</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>50</v>
+        <v>503</v>
       </c>
       <c r="G364" s="2" t="s">
         <v>2</v>
@@ -9960,13 +9861,16 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>237</v>
+        <v>506</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>2</v>
@@ -9977,13 +9881,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>556</v>
+        <v>508</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>558</v>
+        <v>224</v>
       </c>
       <c r="G366" s="2" t="s">
         <v>2</v>
@@ -9994,13 +9898,16 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>559</v>
+        <v>509</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="G367" s="2" t="s">
         <v>2</v>
@@ -10011,16 +9918,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="G368" s="2" t="s">
         <v>2</v>
@@ -10031,13 +9932,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>560</v>
+        <v>514</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>270</v>
+        <v>515</v>
       </c>
       <c r="G369" s="2" t="s">
         <v>2</v>
@@ -10048,16 +9949,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>565</v>
+        <v>261</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>566</v>
+        <v>262</v>
       </c>
       <c r="G370" s="2" t="s">
         <v>2</v>
@@ -10068,10 +9966,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>567</v>
+        <v>517</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="G371" s="2" t="s">
         <v>2</v>
@@ -10082,13 +9983,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>569</v>
+        <v>13</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>570</v>
+        <v>189</v>
       </c>
       <c r="G372" s="2" t="s">
         <v>2</v>
@@ -10099,13 +10000,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="G373" s="2" t="s">
         <v>2</v>
@@ -10116,13 +10017,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="G374" s="2" t="s">
         <v>2</v>
@@ -10133,13 +10034,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="G375" s="2" t="s">
         <v>2</v>
@@ -10150,13 +10051,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>574</v>
+        <v>522</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="G376" s="2" t="s">
         <v>2</v>
@@ -10167,13 +10068,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="G377" s="2" t="s">
         <v>2</v>
@@ -10184,13 +10085,13 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="G378" s="2" t="s">
         <v>2</v>
@@ -10201,13 +10102,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G379" s="2" t="s">
         <v>2</v>
@@ -10218,13 +10119,16 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>307</v>
+        <v>527</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>50</v>
+        <v>529</v>
       </c>
       <c r="G380" s="2" t="s">
         <v>2</v>
@@ -10235,13 +10139,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>307</v>
+        <v>226</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>2</v>
@@ -10252,13 +10159,16 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>13</v>
+        <v>533</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G382" s="2" t="s">
         <v>2</v>
@@ -10269,16 +10179,19 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>581</v>
+        <v>534</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>582</v>
+        <v>13</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>583</v>
+        <v>21</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>584</v>
+        <v>22</v>
       </c>
       <c r="G383" s="2" t="s">
         <v>2</v>
@@ -10289,16 +10202,19 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>585</v>
+        <v>535</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>586</v>
+        <v>21</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G384" s="2" t="s">
         <v>2</v>
@@ -10309,16 +10225,19 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>587</v>
+        <v>536</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>588</v>
+        <v>13</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>242</v>
+        <v>537</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>43</v>
+        <v>538</v>
       </c>
       <c r="G385" s="2" t="s">
         <v>2</v>
@@ -10329,19 +10248,19 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G386" s="2" t="s">
         <v>2</v>
@@ -10352,19 +10271,19 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>21</v>
+        <v>541</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G387" s="2" t="s">
         <v>2</v>
@@ -10375,19 +10294,19 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>20</v>
+        <v>543</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>593</v>
+        <v>40</v>
       </c>
       <c r="G388" s="2" t="s">
         <v>2</v>
@@ -10398,19 +10317,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>24</v>
+        <v>545</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E389" s="2" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G389" s="2" t="s">
         <v>2</v>
@@ -10421,19 +10334,19 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>24</v>
+        <v>547</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G390" s="2" t="s">
         <v>2</v>
@@ -10444,19 +10357,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E391" s="2" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G391" s="2" t="s">
         <v>2</v>
@@ -10467,13 +10374,19 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>600</v>
+        <v>551</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>253</v>
+        <v>553</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G392" s="2" t="s">
         <v>2</v>
@@ -10484,16 +10397,16 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>601</v>
+        <v>555</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>603</v>
+        <v>557</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>16</v>
@@ -10507,10 +10420,16 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>604</v>
+        <v>558</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>605</v>
+        <v>560</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>16</v>
@@ -10524,19 +10443,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>607</v>
+        <v>562</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G395" s="2" t="s">
         <v>2</v>
@@ -10547,19 +10460,16 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>610</v>
+        <v>564</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>611</v>
+        <v>565</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E396" s="2" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G396" s="2" t="s">
         <v>2</v>
@@ -10570,19 +10480,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="E397" s="2" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G397" s="2" t="s">
         <v>2</v>
@@ -10593,13 +10497,19 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>617</v>
+        <v>568</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>618</v>
+        <v>569</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G398" s="2" t="s">
         <v>2</v>
@@ -10610,221 +10520,17 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G399" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
-        <v>399</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="F400" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
-        <v>400</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E401" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F401" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
-        <v>401</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="F402" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G402" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G403" s="5"/>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G404" s="5"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G405" s="5"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G406" s="5"/>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G407" s="5"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G408" s="5"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G409" s="5"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G410" s="5"/>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G411" s="5"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G412" s="5"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G413" s="5"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G414" s="5"/>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G415" s="5"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G416" s="5"/>
-    </row>
-    <row r="417" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G417" s="5"/>
-    </row>
-    <row r="418" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G418" s="5"/>
-    </row>
-    <row r="419" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G419" s="5"/>
-    </row>
-    <row r="420" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G420" s="5"/>
-    </row>
-    <row r="421" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G421" s="5"/>
-    </row>
-    <row r="422" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G422" s="5"/>
-    </row>
-    <row r="423" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G423" s="5"/>
-    </row>
-    <row r="424" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G424" s="5"/>
-    </row>
-    <row r="425" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G425" s="5"/>
-    </row>
-    <row r="426" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G426" s="5"/>
-    </row>
-    <row r="427" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G427" s="5"/>
-    </row>
-    <row r="428" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G428" s="5"/>
-    </row>
-    <row r="429" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G429" s="5"/>
-    </row>
-    <row r="430" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G430" s="5"/>
-    </row>
-    <row r="431" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G431" s="5"/>
-    </row>
-    <row r="432" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G432" s="5"/>
-    </row>
-    <row r="433" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G433" s="5"/>
-    </row>
-    <row r="434" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G434" s="5"/>
-    </row>
-    <row r="435" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G435" s="5"/>
-    </row>
-    <row r="436" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G436" s="5"/>
-    </row>
-    <row r="437" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G437" s="5"/>
-    </row>
-    <row r="438" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G438" s="5"/>
-    </row>
-    <row r="439" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G439" s="5"/>
-    </row>
-    <row r="440" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G440" s="5"/>
-    </row>
-    <row r="441" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G441" s="5"/>
-    </row>
-    <row r="442" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G442" s="5"/>
-    </row>
-    <row r="443" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G443" s="5"/>
-    </row>
-    <row r="444" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G444" s="5"/>
-    </row>
-    <row r="445" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G445" s="5"/>
-    </row>
-    <row r="446" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G446" s="5"/>
-    </row>
-    <row r="447" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G447" s="5"/>
-    </row>
-    <row r="448" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G448" s="5"/>
-    </row>
-    <row r="449" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G449" s="5"/>
-    </row>
-    <row r="450" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G450" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
